--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437298.5772673616</v>
+        <v>-439997.6293612689</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673437</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>165.1725371760947</v>
       </c>
       <c r="G2" t="n">
-        <v>39.70122005611992</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>2.097521993176866</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714237</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>155.7730992275811</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
     </row>
     <row r="4">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>43.81584221576502</v>
       </c>
       <c r="S4" t="n">
-        <v>78.95388869789456</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>345.0319410729227</v>
       </c>
       <c r="G5" t="n">
         <v>412.1217610028605</v>
       </c>
       <c r="H5" t="n">
-        <v>306.8976264094352</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094048</v>
+        <v>87.84129258094039</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816494</v>
       </c>
       <c r="U5" t="n">
-        <v>226.6673324594759</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,25 +975,25 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>112.250475907661</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.6415446830818</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841046</v>
+        <v>74.66512481240395</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224382</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>99.91911451872828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>13.88645869721137</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>113.1358328502782</v>
+        <v>113.1358328502781</v>
       </c>
       <c r="S7" t="n">
-        <v>199.15003117566</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.8489350595717</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>210.5019179178395</v>
       </c>
       <c r="G8" t="n">
-        <v>98.25918840768243</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,7 +1190,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.781160222249216</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>200.2301418407721</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>290.4541585920722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184563</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>342.4936488186134</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530794</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.682419239904</v>
+        <v>190.6248582468243</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>178.2991546092024</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695618</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881295</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1768,13 +1768,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>60.11729550773727</v>
       </c>
       <c r="X16" t="n">
-        <v>168.4805514670952</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2005,16 +2005,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>91.89996056624801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>223.829035290595</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>161.3373146097483</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>140.1594216201954</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0.8253826161951792</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>158.4589496224481</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,10 +2716,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>222.398783807365</v>
+        <v>256.5783722213741</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>214.0647808588579</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670955</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,7 +3187,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3250,7 +3250,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670951</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>229.2938944146486</v>
+        <v>229.2938944146489</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3509,10 +3509,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722633</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797022</v>
+        <v>123.7971820797025</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3749,13 +3749,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>83.06560892428223</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703252</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187861</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4147,10 +4147,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428134</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012173</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673007</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="C2" t="n">
-        <v>560.6825636487952</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323103</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323103</v>
+        <v>371.2627786323104</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158254</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020271</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487952</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="X2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.6825636487952</v>
+        <v>560.6825636487954</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.6599372348735</v>
+        <v>403.3359987724509</v>
       </c>
       <c r="C3" t="n">
-        <v>154.6599372348735</v>
+        <v>403.3359987724509</v>
       </c>
       <c r="D3" t="n">
-        <v>154.6599372348735</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E3" t="n">
-        <v>154.6599372348735</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>154.6599372348735</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>17.12075605732264</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>17.12075605732264</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024222</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017068</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="S3" t="n">
-        <v>722.9192922843281</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="T3" t="n">
-        <v>722.9192922843281</v>
+        <v>592.7557837889358</v>
       </c>
       <c r="U3" t="n">
-        <v>722.9192922843281</v>
+        <v>592.7557837889358</v>
       </c>
       <c r="V3" t="n">
-        <v>533.4995072678432</v>
+        <v>592.7557837889358</v>
       </c>
       <c r="W3" t="n">
-        <v>344.0797222513584</v>
+        <v>592.7557837889358</v>
       </c>
       <c r="X3" t="n">
-        <v>154.6599372348735</v>
+        <v>592.7557837889358</v>
       </c>
       <c r="Y3" t="n">
-        <v>154.6599372348735</v>
+        <v>403.3359987724509</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.1186863856413</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="C4" t="n">
-        <v>165.1186863856413</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="D4" t="n">
-        <v>15.0020469733056</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="E4" t="n">
-        <v>15.0020469733056</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="F4" t="n">
-        <v>15.0020469733056</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="G4" t="n">
-        <v>15.0020469733056</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>141.9790366408477</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330561</v>
       </c>
       <c r="K4" t="n">
         <v>106.7151088594234</v>
@@ -4495,43 +4495,43 @@
         <v>118.7527324484196</v>
       </c>
       <c r="M4" t="n">
-        <v>285.9838492295953</v>
+        <v>285.9838492295955</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242521</v>
+        <v>471.6341805242524</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608023</v>
+        <v>634.3723839608026</v>
       </c>
       <c r="P4" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652804</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.10234866528</v>
+        <v>746.7254979846281</v>
       </c>
       <c r="R4" t="n">
-        <v>615.938338957512</v>
+        <v>702.4670715040573</v>
       </c>
       <c r="S4" t="n">
-        <v>536.186936232366</v>
+        <v>702.4670715040573</v>
       </c>
       <c r="T4" t="n">
-        <v>536.186936232366</v>
+        <v>702.4670715040573</v>
       </c>
       <c r="U4" t="n">
-        <v>536.186936232366</v>
+        <v>702.4670715040573</v>
       </c>
       <c r="V4" t="n">
-        <v>346.767151215881</v>
+        <v>513.0472864875724</v>
       </c>
       <c r="W4" t="n">
-        <v>346.767151215881</v>
+        <v>323.6275014710874</v>
       </c>
       <c r="X4" t="n">
-        <v>346.767151215881</v>
+        <v>323.6275014710874</v>
       </c>
       <c r="Y4" t="n">
-        <v>346.767151215881</v>
+        <v>323.6275014710874</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1649.351105397237</v>
+        <v>1276.884710368728</v>
       </c>
       <c r="C5" t="n">
-        <v>1649.351105397237</v>
+        <v>1276.884710368728</v>
       </c>
       <c r="D5" t="n">
-        <v>1649.351105397237</v>
+        <v>1276.884710368728</v>
       </c>
       <c r="E5" t="n">
-        <v>1263.562852798992</v>
+        <v>891.0964577704833</v>
       </c>
       <c r="F5" t="n">
-        <v>852.5769480093849</v>
+        <v>542.5793455756119</v>
       </c>
       <c r="G5" t="n">
-        <v>436.2923409357884</v>
+        <v>126.2947385020154</v>
       </c>
       <c r="H5" t="n">
         <v>126.2947385020154</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742916</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620869</v>
+        <v>125.6123058620879</v>
       </c>
       <c r="K5" t="n">
-        <v>308.309172940571</v>
+        <v>308.3091729405719</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714456</v>
+        <v>571.8625535714467</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672683</v>
+        <v>896.7859082672701</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917811</v>
+        <v>1231.580670917814</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379519</v>
+        <v>1534.382610379521</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280668</v>
+        <v>1758.316059280671</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="S5" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="T5" t="n">
-        <v>1878.308006871455</v>
+        <v>1667.024042344539</v>
       </c>
       <c r="U5" t="n">
-        <v>1649.351105397237</v>
+        <v>1667.024042344539</v>
       </c>
       <c r="V5" t="n">
-        <v>1649.351105397237</v>
+        <v>1667.024042344539</v>
       </c>
       <c r="W5" t="n">
-        <v>1649.351105397237</v>
+        <v>1667.024042344539</v>
       </c>
       <c r="X5" t="n">
-        <v>1649.351105397237</v>
+        <v>1667.024042344539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1649.351105397237</v>
+        <v>1276.884710368728</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>870.543302697854</v>
+        <v>408.4544457641227</v>
       </c>
       <c r="C6" t="n">
-        <v>757.1589835992065</v>
+        <v>408.4544457641227</v>
       </c>
       <c r="D6" t="n">
-        <v>608.2245739379553</v>
+        <v>259.5200361028714</v>
       </c>
       <c r="E6" t="n">
-        <v>448.9871189324998</v>
+        <v>259.5200361028714</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4525609593848</v>
+        <v>112.9854781297564</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>112.9854781297564</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020065</v>
+        <v>37.56616013742916</v>
       </c>
       <c r="I6" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742916</v>
       </c>
       <c r="J6" t="n">
-        <v>71.18799439755998</v>
+        <v>71.18799439756015</v>
       </c>
       <c r="K6" t="n">
-        <v>206.8078890800185</v>
+        <v>206.8078890800188</v>
       </c>
       <c r="L6" t="n">
-        <v>435.48811517026</v>
+        <v>435.4881151702606</v>
       </c>
       <c r="M6" t="n">
-        <v>721.7040210404009</v>
+        <v>888.0857375107157</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.990454352908</v>
+        <v>1352.966969211402</v>
       </c>
       <c r="O6" t="n">
-        <v>1404.713295678572</v>
+        <v>1612.689810537066</v>
       </c>
       <c r="P6" t="n">
-        <v>1593.830707169302</v>
+        <v>1801.807222027796</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871455</v>
+        <v>1878.308006871458</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856704</v>
+        <v>1736.823381856707</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055441</v>
+        <v>1541.566225055445</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.45570969455</v>
+        <v>1313.455709694554</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462808</v>
+        <v>1078.303601462811</v>
       </c>
       <c r="W6" t="n">
-        <v>1078.303601462808</v>
+        <v>824.0662447346094</v>
       </c>
       <c r="X6" t="n">
-        <v>1078.303601462808</v>
+        <v>616.2147445290766</v>
       </c>
       <c r="Y6" t="n">
-        <v>870.543302697854</v>
+        <v>408.4544457641227</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.4076522235882</v>
+        <v>370.645708434451</v>
       </c>
       <c r="C7" t="n">
-        <v>286.4076522235882</v>
+        <v>201.7095255065441</v>
       </c>
       <c r="D7" t="n">
-        <v>185.4792537198222</v>
+        <v>51.59288609420832</v>
       </c>
       <c r="E7" t="n">
-        <v>37.5661601374291</v>
+        <v>51.59288609420832</v>
       </c>
       <c r="F7" t="n">
-        <v>37.5661601374291</v>
+        <v>51.59288609420832</v>
       </c>
       <c r="G7" t="n">
-        <v>37.5661601374291</v>
+        <v>51.59288609420832</v>
       </c>
       <c r="H7" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742916</v>
       </c>
       <c r="I7" t="n">
-        <v>37.5661601374291</v>
+        <v>37.56616013742916</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256545</v>
+        <v>45.01194249256558</v>
       </c>
       <c r="K7" t="n">
-        <v>187.0844868696026</v>
+        <v>187.0844868696028</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101284</v>
+        <v>424.4148644101289</v>
       </c>
       <c r="M7" t="n">
-        <v>685.035594446749</v>
+        <v>685.0355944467497</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609258</v>
+        <v>944.8939624609266</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103173</v>
+        <v>1168.898929103174</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.05319389053</v>
+        <v>1337.053193890531</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552809</v>
+        <v>1370.03941055281</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512124</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.599143859942</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="T7" t="n">
-        <v>830.5093104664356</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="U7" t="n">
-        <v>830.5093104664356</v>
+        <v>1255.760791512125</v>
       </c>
       <c r="V7" t="n">
-        <v>575.8248222605488</v>
+        <v>1001.076303306238</v>
       </c>
       <c r="W7" t="n">
-        <v>286.4076522235882</v>
+        <v>1001.076303306238</v>
       </c>
       <c r="X7" t="n">
-        <v>286.4076522235882</v>
+        <v>773.0867524082208</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.4076522235882</v>
+        <v>552.2941732646907</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>527.8767859460534</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="C8" t="n">
-        <v>527.8767859460534</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="D8" t="n">
-        <v>527.8767859460534</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="E8" t="n">
-        <v>527.8767859460534</v>
+        <v>983.6388807631536</v>
       </c>
       <c r="F8" t="n">
-        <v>520.9312851968499</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182945</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218651</v>
+        <v>1373.778212738965</v>
       </c>
       <c r="Y8" t="n">
-        <v>527.8767859460534</v>
+        <v>983.6388807631536</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>168.0008189145199</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.04593830764878</v>
+        <v>686.1991671823603</v>
       </c>
       <c r="C10" t="n">
-        <v>53.04593830764878</v>
+        <v>517.2629842544534</v>
       </c>
       <c r="D10" t="n">
-        <v>53.04593830764878</v>
+        <v>367.1463448421176</v>
       </c>
       <c r="E10" t="n">
-        <v>53.04593830764878</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="F10" t="n">
-        <v>53.04593830764878</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G10" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>53.04593830764878</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4990,22 +4990,22 @@
         <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="U10" t="n">
-        <v>825.1371474485136</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426267</v>
+        <v>1134.981297223908</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056661</v>
+        <v>1134.981297223908</v>
       </c>
       <c r="X10" t="n">
-        <v>53.04593830764878</v>
+        <v>906.9917463258904</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.04593830764878</v>
+        <v>686.1991671823603</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1629.560425935178</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="C11" t="n">
-        <v>1260.597908994766</v>
+        <v>1872.090169197691</v>
       </c>
       <c r="D11" t="n">
-        <v>902.3322103880157</v>
+        <v>1513.824470590941</v>
       </c>
       <c r="E11" t="n">
-        <v>516.5439577897714</v>
+        <v>1220.43643160905</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897714</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
@@ -5039,52 +5039,52 @@
         <v>77.53766591592067</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706889</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656958</v>
+        <v>695.1615405656954</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
         <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535294</v>
+        <v>3033.988513535295</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479993</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464058</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
         <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796034</v>
+        <v>3776.999350345375</v>
       </c>
       <c r="T11" t="n">
-        <v>3672.904689377398</v>
+        <v>3573.020743926739</v>
       </c>
       <c r="U11" t="n">
-        <v>3419.410747498926</v>
+        <v>3319.526802048268</v>
       </c>
       <c r="V11" t="n">
-        <v>3088.347860155356</v>
+        <v>2988.463914704697</v>
       </c>
       <c r="W11" t="n">
-        <v>2735.579204885241</v>
+        <v>2635.695259434583</v>
       </c>
       <c r="X11" t="n">
-        <v>2362.113446624161</v>
+        <v>2262.229501173503</v>
       </c>
       <c r="Y11" t="n">
-        <v>2016.1602659993</v>
+        <v>1872.090169197691</v>
       </c>
     </row>
     <row r="12">
@@ -5106,13 +5106,13 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
         <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390848</v>
+        <v>88.13208718390847</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592067</v>
@@ -5121,22 +5121,22 @@
         <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046652</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626166</v>
+        <v>889.4740370626167</v>
       </c>
       <c r="M12" t="n">
         <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720354</v>
+        <v>1933.239912720355</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052877</v>
+        <v>2401.180957052878</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052877</v>
+        <v>2559.377995458575</v>
       </c>
       <c r="Q12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>856.3974185289012</v>
+        <v>655.2536471008073</v>
       </c>
       <c r="C13" t="n">
-        <v>687.4612356009944</v>
+        <v>486.3174641729004</v>
       </c>
       <c r="D13" t="n">
-        <v>537.3445961886587</v>
+        <v>336.2008247605645</v>
       </c>
       <c r="E13" t="n">
-        <v>389.4315026062656</v>
+        <v>336.2008247605645</v>
       </c>
       <c r="F13" t="n">
-        <v>389.4315026062656</v>
+        <v>336.2008247605645</v>
       </c>
       <c r="G13" t="n">
-        <v>221.9335194174539</v>
+        <v>168.7028415717527</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592067</v>
+        <v>168.7028415717527</v>
       </c>
       <c r="I13" t="n">
         <v>77.53766591592067</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758647</v>
+        <v>136.8552218758646</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648141</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344803</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5221,28 +5221,28 @@
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1864.193105060104</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710543</v>
+        <v>1575.101412009555</v>
       </c>
       <c r="V13" t="n">
-        <v>1728.355788710543</v>
+        <v>1575.101412009555</v>
       </c>
       <c r="W13" t="n">
-        <v>1438.938618673583</v>
+        <v>1285.684241972594</v>
       </c>
       <c r="X13" t="n">
-        <v>1258.838462502671</v>
+        <v>1057.694691074577</v>
       </c>
       <c r="Y13" t="n">
-        <v>1038.045883359141</v>
+        <v>836.902111931047</v>
       </c>
     </row>
     <row r="14">
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
         <v>2206.55866301478</v>
@@ -5294,31 +5294,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M15" t="n">
-        <v>1174.766565373399</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N15" t="n">
-        <v>1802.364528928006</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5437,7 +5437,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797745</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.82229605222</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925705</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,13 +5525,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647281</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C19" t="n">
-        <v>631.5645865368213</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D19" t="n">
-        <v>481.4479471244855</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E19" t="n">
-        <v>333.5348535420924</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>186.644906044182</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,10 +5671,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797747</v>
@@ -5695,28 +5695,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579363</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373476</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336515</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438498</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949679</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.9255961109956</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="C22" t="n">
-        <v>489.9894131830887</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851784</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2122.533075881433</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1833.45784922563</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1578.773361019743</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.356190982783</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1061.366640084765</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>840.5740609412353</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5966,13 +5966,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
@@ -5984,10 +5984,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075804</v>
@@ -6011,25 +6011,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958737</v>
+        <v>580.8993044876729</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679668</v>
+        <v>411.963121559766</v>
       </c>
       <c r="D25" t="n">
-        <v>483.8760050556309</v>
+        <v>261.8464821474303</v>
       </c>
       <c r="E25" t="n">
-        <v>335.9629114732381</v>
+        <v>261.0127623330917</v>
       </c>
       <c r="F25" t="n">
-        <v>335.9629114732381</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797783</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235169</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.50678425811</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602308</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396421</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.32989935946</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614428</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261134</v>
+        <v>762.5477693179126</v>
       </c>
     </row>
     <row r="26">
@@ -6221,19 +6221,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6300,19 +6300,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.463817499104</v>
+        <v>726.9555321712448</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711973</v>
+        <v>558.019349243338</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.101833227361</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.112282329344</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>908.6039970014846</v>
       </c>
     </row>
     <row r="29">
@@ -6458,19 +6458,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,25 +6537,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.747479770887</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429801</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782961</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011268</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400718</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
         <v>402.7245934908938</v>
@@ -6847,7 +6847,7 @@
         <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057737</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797189</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
         <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138416</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703115</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,19 +6947,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684978</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D37" t="n">
         <v>402.7245934908939</v>
@@ -7087,19 +7087,19 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7135,10 +7135,10 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925705</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="39">
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1072.713683962606</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1700.311647517212</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,16 +7309,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7360,10 +7360,10 @@
         <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7372,7 +7372,7 @@
         <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y40" t="n">
         <v>753.3092412490405</v>
@@ -7388,7 +7388,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,28 +7409,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7439,7 +7439,7 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466574</v>
@@ -7488,25 +7488,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>119.290296770379</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400718</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121649</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138416</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703115</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="44">
@@ -7637,19 +7637,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270439</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797744</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290589</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925714</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8143,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>152.808936860374</v>
+        <v>152.8089368603742</v>
       </c>
       <c r="N4" t="n">
         <v>163.8604018711117</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496456</v>
+        <v>15.76852197496441</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,10 +8301,10 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>168.062339869004</v>
       </c>
       <c r="N6" t="n">
-        <v>116.2490900608532</v>
+        <v>158.2640379276999</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438836</v>
+        <v>40.00791436438827</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>54.95314511566525</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154991</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>91.47621148018959</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615216</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.74428983744019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927377</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905243</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>28.05756099307975</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>47.41050077983473</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-8.44124770082999e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23656,13 +23656,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>226.4057028288537</v>
       </c>
       <c r="X16" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,16 +23893,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>73.62417772602083</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>62.3554390986491</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>18.49466557218898</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>77.24602870709292</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>145.608580030374</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>7.065188669820763</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,10 +24604,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>64.12421452922598</v>
+        <v>29.94462611521686</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>72.1196935303862</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>57.22910392194169</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194169</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,7 +25138,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>57.22910392194203</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>57.22910392194236</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194236</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>62.35543909864901</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194366</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194255</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856559</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194355</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1039043.709214425</v>
+        <v>1039043.709214426</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1143424.00679628</v>
+        <v>1143424.006796279</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1143424.00679628</v>
+        <v>1143424.006796279</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1143424.006796279</v>
+        <v>1143424.00679628</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1143424.00679628</v>
+        <v>1143424.006796279</v>
       </c>
     </row>
     <row r="13">
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>287364.6194524991</v>
+        <v>287364.619452499</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524993</v>
       </c>
       <c r="E2" t="n">
-        <v>256406.2354960386</v>
+        <v>256406.2354960387</v>
       </c>
       <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="G2" t="n">
+        <v>282501.3098915023</v>
+      </c>
+      <c r="H2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="H2" t="n">
-        <v>282501.3098915023</v>
       </c>
       <c r="I2" t="n">
         <v>282501.3098915023</v>
@@ -26341,10 +26341,10 @@
         <v>282501.3098915022</v>
       </c>
       <c r="L2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
         <v>282501.3098915021</v>
@@ -26353,7 +26353,7 @@
         <v>282501.3098915021</v>
       </c>
       <c r="P2" t="n">
-        <v>282501.3098915021</v>
+        <v>282501.3098915022</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912893</v>
+        <v>312214.8578912899</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972654</v>
+        <v>175413.4991972646</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545768</v>
+        <v>313577.157354577</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704297</v>
+        <v>189308.2687704295</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.0084603017</v>
+        <v>72591.00846030188</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925509</v>
+        <v>43280.54279925492</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273061</v>
+        <v>81897.40371273064</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202386</v>
+        <v>49839.57413202381</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>278169.1766632064</v>
       </c>
       <c r="C4" t="n">
-        <v>195152.1081057576</v>
+        <v>195152.1081057574</v>
       </c>
       <c r="D4" t="n">
-        <v>146359.3674130576</v>
+        <v>146359.3674130577</v>
       </c>
       <c r="E4" t="n">
         <v>14111.33351720851</v>
@@ -26436,25 +26436,25 @@
         <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="J4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685499</v>
+      </c>
+      <c r="M4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="N4" t="n">
+        <v>14216.75207685497</v>
+      </c>
+      <c r="O4" t="n">
         <v>14216.75207685506</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685505</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14216.75207685507</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>14216.75207685507</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638305</v>
+        <v>79427.52208638311</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-639147.2601431663</v>
+        <v>-639147.2601431665</v>
       </c>
       <c r="C6" t="n">
-        <v>-299429.8686309308</v>
+        <v>-299429.8686309311</v>
       </c>
       <c r="D6" t="n">
-        <v>-127346.0195976685</v>
+        <v>-127346.0195976677</v>
       </c>
       <c r="E6" t="n">
-        <v>-156419.7404431324</v>
+        <v>-156640.8717571072</v>
       </c>
       <c r="F6" t="n">
-        <v>-22146.24077968969</v>
+        <v>-22180.97870512521</v>
       </c>
       <c r="G6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653044</v>
       </c>
       <c r="H6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653045</v>
       </c>
       <c r="I6" t="n">
-        <v>167162.0279907401</v>
+        <v>167127.2900653042</v>
       </c>
       <c r="J6" t="n">
-        <v>118097.0832621956</v>
+        <v>118062.3453367598</v>
       </c>
       <c r="K6" t="n">
-        <v>94571.01953043831</v>
+        <v>94536.28160500247</v>
       </c>
       <c r="L6" t="n">
-        <v>123881.485191485</v>
+        <v>123846.7472660494</v>
       </c>
       <c r="M6" t="n">
-        <v>85264.62427800953</v>
+        <v>85229.88635257368</v>
       </c>
       <c r="N6" t="n">
-        <v>117322.4538587161</v>
+        <v>117287.7159332805</v>
       </c>
       <c r="O6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653043</v>
       </c>
       <c r="P6" t="n">
-        <v>167162.02799074</v>
+        <v>167127.2900653043</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282996</v>
+        <v>791.2679074283002</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175391</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178637</v>
+        <v>469.5770017178645</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>969.2208239490084</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26817,13 +26817,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153949</v>
+        <v>242.7979665153954</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892395</v>
+        <v>142.7969846892389</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974108</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.734263126724</v>
+        <v>165.7342631267238</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515437</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821751</v>
+        <v>171.0078303821742</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="F4" t="n">
         <v>203.4874641506402</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515437</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821751</v>
+        <v>171.0078303821745</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506402</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515437</v>
+        <v>282.0514145515444</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821751</v>
+        <v>171.0078303821742</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489695</v>
+        <v>328.6359918489696</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506402</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753914</v>
+        <v>241.7035085656168</v>
       </c>
       <c r="G2" t="n">
-        <v>373.3966131739381</v>
+        <v>225.572246063738</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368131</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988677</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871024</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27461,7 +27461,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>46.6812897623297</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>39.63649856442009</v>
       </c>
       <c r="U3" t="n">
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310526</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>18.15710861098427</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553082</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845772</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.00652739492534</v>
       </c>
       <c r="S4" t="n">
-        <v>127.8263670976017</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27594,10 +27594,10 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750799</v>
+        <v>64.61205615750791</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>98.99741117027091</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>61.84410466878876</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>136.5335673127885</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>24.42384232737868</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,25 +27695,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>60.45802308065478</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>21.1328483660065</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224378</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>48.69635849948408</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785071</v>
+        <v>135.6544840812958</v>
       </c>
       <c r="I7" t="n">
         <v>112.5404054555728</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>199.1500311756599</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>221.8489350595716</v>
       </c>
       <c r="U7" t="n">
         <v>286.241199726252</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>196.3741278238719</v>
       </c>
       <c r="G8" t="n">
-        <v>313.2885143652716</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>103.0154349816514</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>51.90750148305585</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29047,7 +29047,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-4.816298607236514e-13</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29223,7 +29223,7 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>3.880510727564494e-12</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>-5.352869836820412e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30220,19 +30220,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.54335762560769e-12</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30457,10 +30457,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30469,13 +30469,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,10 +30508,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31075,13 +31075,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31136,7 +31136,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31145,22 +31145,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274569</v>
+        <v>3.180976512274571</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633194</v>
+        <v>32.57717570633196</v>
       </c>
       <c r="I5" t="n">
-        <v>122.6345969894654</v>
+        <v>122.6345969894655</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586639</v>
+        <v>269.9814052586642</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232465</v>
+        <v>404.6321410232468</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607695</v>
+        <v>501.9819509607698</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109323</v>
+        <v>558.5516420109327</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264325</v>
+        <v>567.5895915264329</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325022</v>
+        <v>535.9587563325026</v>
       </c>
       <c r="P5" t="n">
-        <v>457.4283986857237</v>
+        <v>457.428398685724</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398906</v>
+        <v>343.5096773398909</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391676</v>
+        <v>199.8170158391677</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345681</v>
+        <v>72.48650227345686</v>
       </c>
       <c r="T5" t="n">
-        <v>13.92472468248193</v>
+        <v>13.92472468248194</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2544781209819655</v>
+        <v>0.2544781209819656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128795</v>
+        <v>1.701972480128797</v>
       </c>
       <c r="H6" t="n">
-        <v>16.437471058086</v>
+        <v>16.43747105808601</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917126</v>
+        <v>58.5986138991713</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142736</v>
+        <v>160.7990754142737</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829029</v>
+        <v>274.8312315829031</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437545</v>
+        <v>369.5445071437547</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484232</v>
+        <v>431.2410095484236</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734976</v>
+        <v>442.6546758734979</v>
       </c>
       <c r="O6" t="n">
-        <v>404.9425488138016</v>
+        <v>404.9425488138019</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888049</v>
+        <v>325.0020957888051</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301249</v>
+        <v>217.255294130125</v>
       </c>
       <c r="R6" t="n">
-        <v>105.6715895995756</v>
+        <v>105.6715895995757</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923441</v>
+        <v>31.61339233923443</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571765</v>
+        <v>6.86014346157177</v>
       </c>
       <c r="U6" t="n">
         <v>0.111971873692684</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378901</v>
+        <v>1.426876554378902</v>
       </c>
       <c r="H7" t="n">
-        <v>12.68622972893242</v>
+        <v>12.68622972893243</v>
       </c>
       <c r="I7" t="n">
-        <v>42.9100694716855</v>
+        <v>42.91006947168553</v>
       </c>
       <c r="J7" t="n">
-        <v>100.8801723945883</v>
+        <v>100.8801723945884</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087486</v>
+        <v>165.7771124087487</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210232</v>
+        <v>212.1376288210233</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014126</v>
+        <v>223.6693857014128</v>
       </c>
       <c r="N7" t="n">
-        <v>218.3510276350914</v>
+        <v>218.3510276350916</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589378</v>
+        <v>201.6825151589379</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496081</v>
+        <v>172.5742334496082</v>
       </c>
       <c r="Q7" t="n">
-        <v>119.4814540216732</v>
+        <v>119.4814540216733</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689129</v>
+        <v>64.15755852689134</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131229</v>
+        <v>24.86656686131231</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709848</v>
+        <v>6.096654368709852</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07782963023884923</v>
+        <v>0.07782963023884928</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869142</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639236</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975123</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544653</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954555</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180163</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.32813369568</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620354</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825967</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495313</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,10 +31832,10 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469206</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193136</v>
@@ -31844,28 +31844,28 @@
         <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747745</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821476</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340502</v>
+        <v>672.5632370340503</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924471</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>293.7693957029132</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746055</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798451</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.318904810054</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811706</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.26317018837748</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522222</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071786</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742439</v>
@@ -32309,19 +32309,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
@@ -32330,7 +32330,7 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.267838362266</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.267838362266</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,31 +33032,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>601.0567753070487</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149951</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,13 +33725,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>321.1112257697157</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982891</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>165.2255134509767</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,16 +34857,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>92.63945645062402</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646083</v>
       </c>
       <c r="M4" t="n">
-        <v>168.9203199809856</v>
+        <v>168.9203199809858</v>
       </c>
       <c r="N4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
         <v>164.382023673283</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197764</v>
+        <v>88.93550073197787</v>
       </c>
       <c r="K5" t="n">
-        <v>184.542289978266</v>
+        <v>184.5422899782662</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907823</v>
+        <v>266.2155359907826</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836595</v>
+        <v>328.20540878366</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298416</v>
+        <v>338.1765279298419</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108154</v>
+        <v>305.8605449108159</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304542</v>
+        <v>226.1954029304545</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654411</v>
+        <v>121.2039874654414</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>33.96144874760694</v>
+        <v>33.96144874760705</v>
       </c>
       <c r="K6" t="n">
-        <v>136.989792608544</v>
+        <v>136.9897926085441</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638803</v>
+        <v>230.9901273638806</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264049</v>
+        <v>457.1693154954093</v>
       </c>
       <c r="N6" t="n">
-        <v>427.5620538510175</v>
+        <v>469.5770017178645</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693571</v>
+        <v>262.3463043693574</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744746</v>
+        <v>191.0276883744748</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3508077799524</v>
+        <v>77.27352004410349</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.520992277915511</v>
+        <v>7.520992277915582</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828658</v>
+        <v>143.5076205828659</v>
       </c>
       <c r="L7" t="n">
-        <v>239.7276540813393</v>
+        <v>239.7276540813395</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632532</v>
+        <v>263.2532626632533</v>
       </c>
       <c r="N7" t="n">
-        <v>262.48320001432</v>
+        <v>262.4832000143201</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729775</v>
+        <v>226.2676430729776</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145016</v>
+        <v>169.8527927145017</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997886</v>
+        <v>33.31941076997894</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>117.9333660065826</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378501</v>
@@ -35264,13 +35264,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>546.4575832202792</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525318</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681828</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739932</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067659</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081472</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553062</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949004</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507169</v>
+        <v>541.221524950717</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480026</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>159.794988288583</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885839</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.9167231918627</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946634</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776306</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>254.8360547723481</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238454</v>
@@ -35741,13 +35741,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.348781916454</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
@@ -35978,7 +35978,7 @@
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36042,10 +36042,10 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096351</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402477</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402477</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36519,7 +36519,7 @@
         <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191354</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010452</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>469.7150632237154</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,28 +36905,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>508.1286233929767</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>187.1368183553855</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>302.0934576762708</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>31.25110603664647</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295334</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
